--- a/data/siRNA_bench/GenScript_siRNA_PAX3_jbst.xlsx
+++ b/data/siRNA_bench/GenScript_siRNA_PAX3_jbst.xlsx
@@ -523,12 +523,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACTCACTGACGGCACGGTGTT</t>
+          <t>CAGAGTCAATATCAGAGCCTT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ACTCACTGACGGCACGGTGTT']</t>
+          <t>['CAGAGTCAATATCAGAGCCTT']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>AACACCGTGCCGTCAGTGAGT</t>
+          <t>AAGGCTCTGATATTGACTCTG</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -591,21 +591,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.57</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GCTGTGAAGGTGGTTCGGCTT</t>
+          <t>ACCATGTGAAACCATTGCCTT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['GCTGTGAAGGTGGTTCGGCTT']</t>
+          <t>['ACCATGTGAAACCATTGCCTT']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -648,15 +648,15 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('ATG', 'TAC')]</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>AAGCCGAACCACCTTCACAGC</t>
+          <t>AAGGCAATGGTTTCACATGGT</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -668,21 +668,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>45.86</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GTCAGGCGTTGTCACCTGCTT</t>
+          <t>TCGATCACAGACCGCGTCCTT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['GTCAGGCGTTGTCACCTGCTT']</t>
+          <t>['TCGATCACAGACCGCGTCCTT']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -725,15 +725,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('GAC', 'CTG')]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>AAGCAGGTGACAACGCCTGAC</t>
+          <t>AAGGACGCGGTCTGTGATCGA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AGGATTCCTCCATTCTTGCTT</t>
+          <t>GTGCTTTGGTGTACAGTGCTT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['AGGATTCCTCCATTCTTGCTT']</t>
+          <t>['GTGCTTTGGTGTACAGTGCTT']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -802,15 +802,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TGT', 'ACA')]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>AAGCAAGAATGGAGGAATCCT</t>
+          <t>AAGCACTGTACACCAAAGCAC</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -825,18 +825,18 @@
         <v>-2</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.29</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACTCGCTACGTCATAGTTCTT</t>
+          <t>GTCAGGCGTTGTCACCTGCTT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['ACTCGCTACGTCATAGTTCTT']</t>
+          <t>['GTCAGGCGTTGTCACCTGCTT']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -879,15 +879,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['ACGT']</t>
+          <t>[('CAGG', 'GTCC')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>AAGAACTATGACGTAGCGAGT</t>
+          <t>AAGCAGGTGACAACGCCTGAC</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,21 +899,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.29</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACCATGTGAAACCATTGCCTT</t>
+          <t>AGGATTCCTCCATTCTTGCTT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['ACCATGTGAAACCATTGCCTT']</t>
+          <t>['AGGATTCCTCCATTCTTGCTT']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,15 +956,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('AGGA', 'TCCT')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>AAGGCAATGGTTTCACATGGT</t>
+          <t>AAGCAAGAATGGAGGAATCCT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.29</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CAGAGTCAATATCAGAGCCTT</t>
+          <t>CCTTTACAGCTAGTCTAGCTT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['CAGAGTCAATATCAGAGCCTT']</t>
+          <t>['CCTTTACAGCTAGTCTAGCTT']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1033,15 +1033,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['ATAT']</t>
+          <t>[('AGCTAG', 'TCGATC')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>AAGGCTCTGATATTGACTCTG</t>
+          <t>AAGCTAGACTAGCTGTAAAGG</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1053,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.05</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CCTTTACAGCTAGTCTAGCTT</t>
+          <t>ACTCGCTACGTCATAGTTCTT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['CCTTTACAGCTAGTCTAGCTT']</t>
+          <t>['ACTCGCTACGTCATAGTTCTT']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1110,15 +1110,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['AGCT', 'CTAG']</t>
+          <t>[('CTA', 'GAT'), ('ACT', 'TGA')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>AAGCTAGACTAGCTGTAAAGG</t>
+          <t>AAGAACTATGACGTAGCGAGT</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.29</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GTGCTTTGGTGTACAGTGCTT</t>
+          <t>ACTCACTGACGGCACGGTGTT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['GTGCTTTGGTGTACAGTGCTT']</t>
+          <t>['ACTCACTGACGGCACGGTGTT']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1187,15 +1187,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['TGTACA', 'GTAC']</t>
+          <t>[('TCA', 'AGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>AAGCACTGTACACCAAAGCAC</t>
+          <t>AACACCGTGCCGTCAGTGAGT</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1207,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.33</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TCGATCACAGACCGCGTCCTT</t>
+          <t>GCTGTGAAGGTGGTTCGGCTT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['TCGATCACAGACCGCGTCCTT']</t>
+          <t>['GCTGTGAAGGTGGTTCGGCTT']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['CGCG', 'GATC', 'TCGA']</t>
+          <t>[('GAA', 'CTT'), ('AAG', 'TTC')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>AAGGACGCGGTCTGTGATCGA</t>
+          <t>AAGCCGAACCACCTTCACAGC</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1287,7 +1287,7 @@
         <v>-1</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.05</v>
+        <v>57.14</v>
       </c>
     </row>
   </sheetData>
